--- a/target/ExcelArv/massaLoginExcelData.xlsx
+++ b/target/ExcelArv/massaLoginExcelData.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduardo.matias\Documents\eclipce-workspace\Automacao-PageObject-RSI-timeSheet\target\ExcelArv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="12960" windowHeight="4440"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="12960" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>eduardo.matias</t>
+    <t>loginExcel, login, senha</t>
   </si>
   <si>
-    <t>eduhitman1**</t>
-  </si>
-  <si>
-    <t>matheus.gomes</t>
-  </si>
-  <si>
-    <t>matheus</t>
+    <t xml:space="preserve">                              , eduardo.matias, eduhitman1**</t>
   </si>
 </sst>
 </file>
@@ -361,9 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -375,19 +371,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>454545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
